--- a/LR3/table_2_3.xlsx
+++ b/LR3/table_2_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\Информационные технологии\Лабораторная работа №3. Работа с табличным редактором\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EEC68D-E9B5-454C-B2FD-859FF84D6F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E677A7-0B41-4D32-A40F-5FC534AFC49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1830,6 +1830,7 @@
     <sheetNames>
       <sheetName val="График отпусков 2016 год"/>
       <sheetName val="Праздники"/>
+      <sheetName val="table_2_example"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2107,6 +2108,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2377,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LR3/table_2_3.xlsx
+++ b/LR3/table_2_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E677A7-0B41-4D32-A40F-5FC534AFC49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157CF18-757E-45CB-B039-C7096F8C9F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2379,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
